--- a/documents/analysis/Gama.xlsx
+++ b/documents/analysis/Gama.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edielson\Documents\Researches\robust-network-optimization\ampl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Edielson\Documents\Researches\robust-network-optimization\documents\analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4420" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Correct" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="7">
   <si>
     <t>p</t>
   </si>
@@ -39,6 +40,15 @@
   </si>
   <si>
     <t>N(N-1)</t>
+  </si>
+  <si>
+    <t>nij</t>
+  </si>
+  <si>
+    <t>Cij</t>
+  </si>
+  <si>
+    <t>y</t>
   </si>
 </sst>
 </file>
@@ -60,12 +70,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -162,7 +178,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -191,498 +207,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="14">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
         <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -786,8 +352,8 @@
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206595" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -863,7 +429,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -922,8 +488,8 @@
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="206595" cy="183192"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -999,7 +565,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="3" name="TextBox 2"/>
@@ -2145,8 +1711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3581,7 +3147,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:AF28">
-    <cfRule type="cellIs" dxfId="21" priority="18" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="13" priority="18" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5770,7 +5336,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C8:AF38">
-    <cfRule type="cellIs" dxfId="22" priority="13" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="12" priority="13" operator="lessThanOrEqual">
       <formula>$D$3</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8502,42 +8068,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6:AG27 D28:Y28 D29:AG35">
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C6">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C10">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C35">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z28:AH28">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThanOrEqual">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThanOrEqual">
       <formula>$D$2</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8545,4 +8111,1395 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:Z27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A2" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="A3" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="15">
+        <f>B3*(B3-1)</f>
+        <v>20</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="16"/>
+      <c r="S4" s="16"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="16"/>
+      <c r="W4" s="16"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
+      </c>
+      <c r="I5">
+        <v>6</v>
+      </c>
+      <c r="J5">
+        <v>7</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5">
+        <v>9</v>
+      </c>
+      <c r="M5">
+        <v>10</v>
+      </c>
+      <c r="N5">
+        <v>11</v>
+      </c>
+      <c r="O5">
+        <v>12</v>
+      </c>
+      <c r="P5">
+        <v>13</v>
+      </c>
+      <c r="Q5">
+        <v>14</v>
+      </c>
+      <c r="R5">
+        <v>15</v>
+      </c>
+      <c r="S5">
+        <v>16</v>
+      </c>
+      <c r="T5">
+        <v>17</v>
+      </c>
+      <c r="U5">
+        <v>18</v>
+      </c>
+      <c r="V5">
+        <v>19</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+      <c r="X5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B6" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>(FACT(D$5)/(FACT($C6)*FACT(D$5-$C6)))*($B$1^$C6)*(1-$B$1)^(D$5-$C6)</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="E6">
+        <f>(FACT(E$5)/(FACT($C6)*FACT(E$5-$C6)))*($B$1^$C6)*(1-$B$1)^(E$5-$C6)</f>
+        <v>4.8750000000000002E-2</v>
+      </c>
+      <c r="F6">
+        <f>(FACT($F$5)/(FACT(C6)*FACT($F$5-C6)))*($B$1^C6)*(1-$B$1)^($F$5-C6)</f>
+        <v>7.129687500000001E-2</v>
+      </c>
+      <c r="G6">
+        <f>(FACT($G$5)/(FACT(C6)*FACT($G$5-C6)))*($B$1^C6)*(1-$B$1)^($G$5-C6)</f>
+        <v>9.2685937499999996E-2</v>
+      </c>
+      <c r="H6">
+        <f>(FACT(H$5)/(FACT($C6)*FACT(H$5-$C6)))*($B$1^$C6)*(1-$B$1)^(H$5-$C6)</f>
+        <v>0.11296098632812498</v>
+      </c>
+      <c r="I6">
+        <f>(FACT(I$5)/(FACT($C6)*FACT(I$5-$C6)))*($B$1^$C6)*(1-$B$1)^(I$5-$C6)</f>
+        <v>0.13216435400390625</v>
+      </c>
+      <c r="J6">
+        <f>(FACT(J$5)/(FACT($C6)*FACT(J$5-$C6)))*($B$1^$C6)*(1-$B$1)^(J$5-$C6)</f>
+        <v>0.15033695267944333</v>
+      </c>
+      <c r="K6">
+        <f>(FACT(K$5)/(FACT($C6)*FACT(K$5-$C6)))*($B$1^$C6)*(1-$B$1)^(K$5-$C6)</f>
+        <v>0.16751831869995115</v>
+      </c>
+      <c r="L6">
+        <f>(FACT(L$5)/(FACT($C6)*FACT(L$5-$C6)))*($B$1^$C6)*(1-$B$1)^(L$5-$C6)</f>
+        <v>0.1837466558240089</v>
+      </c>
+      <c r="M6">
+        <f>(FACT(M$5)/(FACT($C6)*FACT(M$5-$C6)))*($B$1^$C6)*(1-$B$1)^(M$5-$C6)</f>
+        <v>0.19905887714267631</v>
+      </c>
+      <c r="N6">
+        <f>(FACT(N$5)/(FACT($C6)*FACT(N$5-$C6)))*($B$1^$C6)*(1-$B$1)^(N$5-$C6)</f>
+        <v>0.21349064573552035</v>
+      </c>
+      <c r="O6">
+        <f>(FACT(O$5)/(FACT($C6)*FACT(O$5-$C6)))*($B$1^$C6)*(1-$B$1)^(O$5-$C6)</f>
+        <v>0.227076414100508</v>
+      </c>
+      <c r="P6">
+        <f>(FACT(P$5)/(FACT($C6)*FACT(P$5-$C6)))*($B$1^$C6)*(1-$B$1)^(P$5-$C6)</f>
+        <v>0.23984946239366156</v>
+      </c>
+      <c r="Q6">
+        <f>(FACT(Q$5)/(FACT($C6)*FACT(Q$5-$C6)))*($B$1^$C6)*(1-$B$1)^(Q$5-$C6)</f>
+        <v>0.25184193551334461</v>
+      </c>
+      <c r="R6">
+        <f>(FACT(R$5)/(FACT($C6)*FACT(R$5-$C6)))*($B$1^$C6)*(1-$B$1)^(R$5-$C6)</f>
+        <v>0.26308487906304751</v>
+      </c>
+      <c r="S6">
+        <f>(FACT(S$5)/(FACT($C6)*FACT(S$5-$C6)))*($B$1^$C6)*(1-$B$1)^(S$5-$C6)</f>
+        <v>0.27360827422556938</v>
+      </c>
+      <c r="T6">
+        <f>(FACT(T$5)/(FACT($C6)*FACT(T$5-$C6)))*($B$1^$C6)*(1-$B$1)^(T$5-$C6)</f>
+        <v>0.28344107158055082</v>
+      </c>
+      <c r="U6">
+        <f>(FACT(U$5)/(FACT($C6)*FACT(U$5-$C6)))*($B$1^$C6)*(1-$B$1)^(U$5-$C6)</f>
+        <v>0.2926112238963921</v>
+      </c>
+      <c r="V6">
+        <f>(FACT(V$5)/(FACT($C6)*FACT(V$5-$C6)))*($B$1^$C6)*(1-$B$1)^(V$5-$C6)</f>
+        <v>0.30114571792670358</v>
+      </c>
+      <c r="W6">
+        <f>(FACT(W$5)/(FACT($C6)*FACT(W$5-$C6)))*($B$1^$C6)*(1-$B$1)^(W$5-$C6)</f>
+        <v>0.30907060524056418</v>
+      </c>
+      <c r="X6">
+        <f>C6-1</f>
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B7" s="17"/>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="E7" s="18">
+        <f>(FACT(E$5)/(FACT($C7)*FACT(E$5-$C7)))*($B$1^$C7)*(1-$B$1)^(E$5-$C7)</f>
+        <v>6.2500000000000012E-4</v>
+      </c>
+      <c r="F7" s="18">
+        <f>(FACT($F$5)/(FACT(C7)*FACT($F$5-C7)))*($B$1^C7)*(1-$B$1)^($F$5-C7)</f>
+        <v>1.8281250000000003E-3</v>
+      </c>
+      <c r="G7" s="18">
+        <f>(FACT($G$5)/(FACT(C7)*FACT($G$5-C7)))*($B$1^C7)*(1-$B$1)^($G$5-C7)</f>
+        <v>3.5648437500000003E-3</v>
+      </c>
+      <c r="H7" s="18">
+        <f>(FACT(H$5)/(FACT($C7)*FACT(H$5-$C7)))*($B$1^$C7)*(1-$B$1)^(H$5-$C7)</f>
+        <v>5.7928710937500006E-3</v>
+      </c>
+      <c r="I7" s="18">
+        <f>(FACT(I$5)/(FACT($C7)*FACT(I$5-$C7)))*($B$1^$C7)*(1-$B$1)^(I$5-$C7)</f>
+        <v>8.4720739746093759E-3</v>
+      </c>
+      <c r="J7">
+        <f>(FACT(J$5)/(FACT($C7)*FACT(J$5-$C7)))*($B$1^$C7)*(1-$B$1)^(J$5-$C7)</f>
+        <v>1.1564380975341798E-2</v>
+      </c>
+      <c r="K7">
+        <f>(FACT(K$5)/(FACT($C7)*FACT(K$5-$C7)))*($B$1^$C7)*(1-$B$1)^(K$5-$C7)</f>
+        <v>1.5033695267944335E-2</v>
+      </c>
+      <c r="L7">
+        <f>(FACT(L$5)/(FACT($C7)*FACT(L$5-$C7)))*($B$1^$C7)*(1-$B$1)^(L$5-$C7)</f>
+        <v>1.8845810853744507E-2</v>
+      </c>
+      <c r="M7">
+        <f>(FACT(M$5)/(FACT($C7)*FACT(M$5-$C7)))*($B$1^$C7)*(1-$B$1)^(M$5-$C7)</f>
+        <v>2.2968331978001116E-2</v>
+      </c>
+      <c r="N7">
+        <f>(FACT(N$5)/(FACT($C7)*FACT(N$5-$C7)))*($B$1^$C7)*(1-$B$1)^(N$5-$C7)</f>
+        <v>2.7370595607117999E-2</v>
+      </c>
+      <c r="O7">
+        <f>(FACT(O$5)/(FACT($C7)*FACT(O$5-$C7)))*($B$1^$C7)*(1-$B$1)^(O$5-$C7)</f>
+        <v>3.2023596860328053E-2</v>
+      </c>
+      <c r="P7">
+        <f>(FACT(P$5)/(FACT($C7)*FACT(P$5-$C7)))*($B$1^$C7)*(1-$B$1)^(P$5-$C7)</f>
+        <v>3.6899917291332553E-2</v>
+      </c>
+      <c r="Q7">
+        <f>(FACT(Q$5)/(FACT($C7)*FACT(Q$5-$C7)))*($B$1^$C7)*(1-$B$1)^(Q$5-$C7)</f>
+        <v>4.1973655918890775E-2</v>
+      </c>
+      <c r="R7">
+        <f>(FACT(R$5)/(FACT($C7)*FACT(R$5-$C7)))*($B$1^$C7)*(1-$B$1)^(R$5-$C7)</f>
+        <v>4.7220362908752124E-2</v>
+      </c>
+      <c r="S7">
+        <f>(FACT(S$5)/(FACT($C7)*FACT(S$5-$C7)))*($B$1^$C7)*(1-$B$1)^(S$5-$C7)</f>
+        <v>5.2616975812609504E-2</v>
+      </c>
+      <c r="T7">
+        <f>(FACT(T$5)/(FACT($C7)*FACT(T$5-$C7)))*($B$1^$C7)*(1-$B$1)^(T$5-$C7)</f>
+        <v>5.8141758272933497E-2</v>
+      </c>
+      <c r="U7">
+        <f>(FACT(U$5)/(FACT($C7)*FACT(U$5-$C7)))*($B$1^$C7)*(1-$B$1)^(U$5-$C7)</f>
+        <v>6.3774241105623936E-2</v>
+      </c>
+      <c r="V7">
+        <f>(FACT(V$5)/(FACT($C7)*FACT(V$5-$C7)))*($B$1^$C7)*(1-$B$1)^(V$5-$C7)</f>
+        <v>6.9495165675393142E-2</v>
+      </c>
+      <c r="W7">
+        <f>(FACT(W$5)/(FACT($C7)*FACT(W$5-$C7)))*($B$1^$C7)*(1-$B$1)^(W$5-$C7)</f>
+        <v>7.5286429481675896E-2</v>
+      </c>
+      <c r="X7">
+        <f>C7-1</f>
+        <v>1</v>
+      </c>
+      <c r="Z7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B8" s="17"/>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="F8" s="18">
+        <f>(FACT($F$5)/(FACT(C8)*FACT($F$5-C8)))*($B$1^C8)*(1-$B$1)^($F$5-C8)</f>
+        <v>1.5625000000000004E-5</v>
+      </c>
+      <c r="G8" s="18">
+        <f>(FACT($G$5)/(FACT(C8)*FACT($G$5-C8)))*($B$1^C8)*(1-$B$1)^($G$5-C8)</f>
+        <v>6.0937500000000011E-5</v>
+      </c>
+      <c r="H8" s="18">
+        <f>(FACT(H$5)/(FACT($C8)*FACT(H$5-$C8)))*($B$1^$C8)*(1-$B$1)^(H$5-$C8)</f>
+        <v>1.4853515625000001E-4</v>
+      </c>
+      <c r="I8" s="18">
+        <f>(FACT(I$5)/(FACT($C8)*FACT(I$5-$C8)))*($B$1^$C8)*(1-$B$1)^(I$5-$C8)</f>
+        <v>2.8964355468750005E-4</v>
+      </c>
+      <c r="J8" s="18">
+        <f>(FACT(J$5)/(FACT($C8)*FACT(J$5-$C8)))*($B$1^$C8)*(1-$B$1)^(J$5-$C8)</f>
+        <v>4.9420431518554697E-4</v>
+      </c>
+      <c r="K8" s="18">
+        <f>(FACT(K$5)/(FACT($C8)*FACT(K$5-$C8)))*($B$1^$C8)*(1-$B$1)^(K$5-$C8)</f>
+        <v>7.7095873168945325E-4</v>
+      </c>
+      <c r="L8" s="18">
+        <f>(FACT(L$5)/(FACT($C8)*FACT(L$5-$C8)))*($B$1^$C8)*(1-$B$1)^(L$5-$C8)</f>
+        <v>1.1275271450958252E-3</v>
+      </c>
+      <c r="M8" s="18">
+        <f>(FACT(M$5)/(FACT($C8)*FACT(M$5-$C8)))*($B$1^$C8)*(1-$B$1)^(M$5-$C8)</f>
+        <v>1.5704842378120422E-3</v>
+      </c>
+      <c r="N8" s="18">
+        <f>(FACT(N$5)/(FACT($C8)*FACT(N$5-$C8)))*($B$1^$C8)*(1-$B$1)^(N$5-$C8)</f>
+        <v>2.1054304313167689E-3</v>
+      </c>
+      <c r="O8" s="18">
+        <f>(FACT(O$5)/(FACT($C8)*FACT(O$5-$C8)))*($B$1^$C8)*(1-$B$1)^(O$5-$C8)</f>
+        <v>2.7370595607117999E-3</v>
+      </c>
+      <c r="P8" s="18">
+        <f>(FACT(P$5)/(FACT($C8)*FACT(P$5-$C8)))*($B$1^$C8)*(1-$B$1)^(P$5-$C8)</f>
+        <v>3.4692229932022063E-3</v>
+      </c>
+      <c r="Q8" s="18">
+        <f>(FACT(Q$5)/(FACT($C8)*FACT(Q$5-$C8)))*($B$1^$C8)*(1-$B$1)^(Q$5-$C8)</f>
+        <v>4.3049903506554646E-3</v>
+      </c>
+      <c r="R8" s="18">
+        <f>(FACT(R$5)/(FACT($C8)*FACT(R$5-$C8)))*($B$1^$C8)*(1-$B$1)^(R$5-$C8)</f>
+        <v>5.2467069898613477E-3</v>
+      </c>
+      <c r="S8" s="18">
+        <f>(FACT(S$5)/(FACT($C8)*FACT(S$5-$C8)))*($B$1^$C8)*(1-$B$1)^(S$5-$C8)</f>
+        <v>6.2960483878336171E-3</v>
+      </c>
+      <c r="T8" s="18">
+        <f>(FACT(T$5)/(FACT($C8)*FACT(T$5-$C8)))*($B$1^$C8)*(1-$B$1)^(T$5-$C8)</f>
+        <v>7.4540715734530139E-3</v>
+      </c>
+      <c r="U8" s="18">
+        <f>(FACT(U$5)/(FACT($C8)*FACT(U$5-$C8)))*($B$1^$C8)*(1-$B$1)^(U$5-$C8)</f>
+        <v>8.7212637409400245E-3</v>
+      </c>
+      <c r="V8">
+        <f>(FACT(V$5)/(FACT($C8)*FACT(V$5-$C8)))*($B$1^$C8)*(1-$B$1)^(V$5-$C8)</f>
+        <v>1.0097588175057124E-2</v>
+      </c>
+      <c r="W8">
+        <f>(FACT(W$5)/(FACT($C8)*FACT(W$5-$C8)))*($B$1^$C8)*(1-$B$1)^(W$5-$C8)</f>
+        <v>1.1582527612565525E-2</v>
+      </c>
+      <c r="X8">
+        <f>C8-1</f>
+        <v>2</v>
+      </c>
+      <c r="Z8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B9" s="17"/>
+      <c r="C9">
+        <v>4</v>
+      </c>
+      <c r="G9" s="18">
+        <f>(FACT($G$5)/(FACT(C9)*FACT($G$5-C9)))*($B$1^C9)*(1-$B$1)^($G$5-C9)</f>
+        <v>3.9062500000000018E-7</v>
+      </c>
+      <c r="H9" s="18">
+        <f>(FACT(H$5)/(FACT($C9)*FACT(H$5-$C9)))*($B$1^$C9)*(1-$B$1)^(H$5-$C9)</f>
+        <v>1.9042968750000008E-6</v>
+      </c>
+      <c r="I9" s="18">
+        <f>(FACT(I$5)/(FACT($C9)*FACT(I$5-$C9)))*($B$1^$C9)*(1-$B$1)^(I$5-$C9)</f>
+        <v>5.5700683593750022E-6</v>
+      </c>
+      <c r="J9" s="18">
+        <f>(FACT(J$5)/(FACT($C9)*FACT(J$5-$C9)))*($B$1^$C9)*(1-$B$1)^(J$5-$C9)</f>
+        <v>1.2671905517578129E-5</v>
+      </c>
+      <c r="K9" s="18">
+        <f>(FACT(K$5)/(FACT($C9)*FACT(K$5-$C9)))*($B$1^$C9)*(1-$B$1)^(K$5-$C9)</f>
+        <v>2.4710215759277349E-5</v>
+      </c>
+      <c r="L9" s="18">
+        <f>(FACT(L$5)/(FACT($C9)*FACT(L$5-$C9)))*($B$1^$C9)*(1-$B$1)^(L$5-$C9)</f>
+        <v>4.336642865753175E-5</v>
+      </c>
+      <c r="M9" s="18">
+        <f>(FACT(M$5)/(FACT($C9)*FACT(M$5-$C9)))*($B$1^$C9)*(1-$B$1)^(M$5-$C9)</f>
+        <v>7.0470446568489091E-5</v>
+      </c>
+      <c r="N9" s="18">
+        <f>(FACT(N$5)/(FACT($C9)*FACT(N$5-$C9)))*($B$1^$C9)*(1-$B$1)^(N$5-$C9)</f>
+        <v>1.0797079134957793E-4</v>
+      </c>
+      <c r="O9" s="18">
+        <f>(FACT(O$5)/(FACT($C9)*FACT(O$5-$C9)))*($B$1^$C9)*(1-$B$1)^(O$5-$C9)</f>
+        <v>1.5790728234875773E-4</v>
+      </c>
+      <c r="P9" s="18">
+        <f>(FACT(P$5)/(FACT($C9)*FACT(P$5-$C9)))*($B$1^$C9)*(1-$B$1)^(P$5-$C9)</f>
+        <v>2.2238608930783381E-4</v>
+      </c>
+      <c r="Q9" s="18">
+        <f>(FACT(Q$5)/(FACT($C9)*FACT(Q$5-$C9)))*($B$1^$C9)*(1-$B$1)^(Q$5-$C9)</f>
+        <v>3.0355701190519312E-4</v>
+      </c>
+      <c r="R9" s="18">
+        <f>(FACT(R$5)/(FACT($C9)*FACT(R$5-$C9)))*($B$1^$C9)*(1-$B$1)^(R$5-$C9)</f>
+        <v>4.0359284537394991E-4</v>
+      </c>
+      <c r="S9" s="18">
+        <f>(FACT(S$5)/(FACT($C9)*FACT(S$5-$C9)))*($B$1^$C9)*(1-$B$1)^(S$5-$C9)</f>
+        <v>5.246706989861349E-4</v>
+      </c>
+      <c r="T9" s="18">
+        <f>(FACT(T$5)/(FACT($C9)*FACT(T$5-$C9)))*($B$1^$C9)*(1-$B$1)^(T$5-$C9)</f>
+        <v>6.6895514120732193E-4</v>
+      </c>
+      <c r="U9" s="18">
+        <f>(FACT(U$5)/(FACT($C9)*FACT(U$5-$C9)))*($B$1^$C9)*(1-$B$1)^(U$5-$C9)</f>
+        <v>8.3858305201346434E-4</v>
+      </c>
+      <c r="V9" s="18">
+        <f>(FACT(V$5)/(FACT($C9)*FACT(V$5-$C9)))*($B$1^$C9)*(1-$B$1)^(V$5-$C9)</f>
+        <v>1.0356500692366281E-3</v>
+      </c>
+      <c r="W9" s="18">
+        <f>(FACT(W$5)/(FACT($C9)*FACT(W$5-$C9)))*($B$1^$C9)*(1-$B$1)^(W$5-$C9)</f>
+        <v>1.2621985218821408E-3</v>
+      </c>
+      <c r="X9">
+        <f>C9-1</f>
+        <v>3</v>
+      </c>
+      <c r="Z9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B10" s="17"/>
+      <c r="C10">
+        <v>5</v>
+      </c>
+      <c r="H10" s="18">
+        <f>(FACT(H$5)/(FACT($C10)*FACT(H$5-$C10)))*($B$1^$C10)*(1-$B$1)^(H$5-$C10)</f>
+        <v>9.7656250000000058E-9</v>
+      </c>
+      <c r="I10" s="18">
+        <f>(FACT(I$5)/(FACT($C10)*FACT(I$5-$C10)))*($B$1^$C10)*(1-$B$1)^(I$5-$C10)</f>
+        <v>5.7128906250000032E-8</v>
+      </c>
+      <c r="J10" s="18">
+        <f>(FACT(J$5)/(FACT($C10)*FACT(J$5-$C10)))*($B$1^$C10)*(1-$B$1)^(J$5-$C10)</f>
+        <v>1.9495239257812511E-7</v>
+      </c>
+      <c r="K10" s="18">
+        <f>(FACT(K$5)/(FACT($C10)*FACT(K$5-$C10)))*($B$1^$C10)*(1-$B$1)^(K$5-$C10)</f>
+        <v>5.0687622070312533E-7</v>
+      </c>
+      <c r="L10" s="18">
+        <f>(FACT(L$5)/(FACT($C10)*FACT(L$5-$C10)))*($B$1^$C10)*(1-$B$1)^(L$5-$C10)</f>
+        <v>1.111959709167481E-6</v>
+      </c>
+      <c r="M10" s="18">
+        <f>(FACT(M$5)/(FACT($C10)*FACT(M$5-$C10)))*($B$1^$C10)*(1-$B$1)^(M$5-$C10)</f>
+        <v>2.1683214328765879E-6</v>
+      </c>
+      <c r="N10" s="18">
+        <f>(FACT(N$5)/(FACT($C10)*FACT(N$5-$C10)))*($B$1^$C10)*(1-$B$1)^(N$5-$C10)</f>
+        <v>3.8758745612669E-6</v>
+      </c>
+      <c r="O10" s="18">
+        <f>(FACT(O$5)/(FACT($C10)*FACT(O$5-$C10)))*($B$1^$C10)*(1-$B$1)^(O$5-$C10)</f>
+        <v>6.4782474809746769E-6</v>
+      </c>
+      <c r="P10" s="18">
+        <f>(FACT(P$5)/(FACT($C10)*FACT(P$5-$C10)))*($B$1^$C10)*(1-$B$1)^(P$5-$C10)</f>
+        <v>1.0263973352669254E-5</v>
+      </c>
+      <c r="Q10" s="18">
+        <f>(FACT(Q$5)/(FACT($C10)*FACT(Q$5-$C10)))*($B$1^$C10)*(1-$B$1)^(Q$5-$C10)</f>
+        <v>1.5567026251548368E-5</v>
+      </c>
+      <c r="R10" s="18">
+        <f>(FACT(R$5)/(FACT($C10)*FACT(R$5-$C10)))*($B$1^$C10)*(1-$B$1)^(R$5-$C10)</f>
+        <v>2.2766775892889487E-5</v>
+      </c>
+      <c r="S10" s="18">
+        <f>(FACT(S$5)/(FACT($C10)*FACT(S$5-$C10)))*($B$1^$C10)*(1-$B$1)^(S$5-$C10)</f>
+        <v>3.2287427629915993E-5</v>
+      </c>
+      <c r="T10" s="18">
+        <f>(FACT(T$5)/(FACT($C10)*FACT(T$5-$C10)))*($B$1^$C10)*(1-$B$1)^(T$5-$C10)</f>
+        <v>4.4597009413821475E-5</v>
+      </c>
+      <c r="U10" s="18">
+        <f>(FACT(U$5)/(FACT($C10)*FACT(U$5-$C10)))*($B$1^$C10)*(1-$B$1)^(U$5-$C10)</f>
+        <v>6.0205962708658977E-5</v>
+      </c>
+      <c r="V10" s="18">
+        <f>(FACT(V$5)/(FACT($C10)*FACT(V$5-$C10)))*($B$1^$C10)*(1-$B$1)^(V$5-$C10)</f>
+        <v>7.9665389941279113E-5</v>
+      </c>
+      <c r="W10" s="18">
+        <f>(FACT(W$5)/(FACT($C10)*FACT(W$5-$C10)))*($B$1^$C10)*(1-$B$1)^(W$5-$C10)</f>
+        <v>1.0356500692366283E-4</v>
+      </c>
+      <c r="X10">
+        <f>C10-1</f>
+        <v>4</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B11" s="19"/>
+      <c r="C11">
+        <v>6</v>
+      </c>
+      <c r="I11" s="18">
+        <f>(FACT(I$5)/(FACT($C11)*FACT(I$5-$C11)))*($B$1^$C11)*(1-$B$1)^(I$5-$C11)</f>
+        <v>2.4414062500000014E-10</v>
+      </c>
+      <c r="J11" s="18">
+        <f>(FACT(J$5)/(FACT($C11)*FACT(J$5-$C11)))*($B$1^$C11)*(1-$B$1)^(J$5-$C11)</f>
+        <v>1.666259765625001E-9</v>
+      </c>
+      <c r="K11" s="18">
+        <f>(FACT(K$5)/(FACT($C11)*FACT(K$5-$C11)))*($B$1^$C11)*(1-$B$1)^(K$5-$C11)</f>
+        <v>6.4984130859375034E-9</v>
+      </c>
+      <c r="L11" s="18">
+        <f>(FACT(L$5)/(FACT($C11)*FACT(L$5-$C11)))*($B$1^$C11)*(1-$B$1)^(L$5-$C11)</f>
+        <v>1.9007858276367198E-8</v>
+      </c>
+      <c r="M11" s="18">
+        <f>(FACT(M$5)/(FACT($C11)*FACT(M$5-$C11)))*($B$1^$C11)*(1-$B$1)^(M$5-$C11)</f>
+        <v>4.6331654548645041E-8</v>
+      </c>
+      <c r="N11" s="18">
+        <f>(FACT(N$5)/(FACT($C11)*FACT(N$5-$C11)))*($B$1^$C11)*(1-$B$1)^(N$5-$C11)</f>
+        <v>9.9381399006843616E-8</v>
+      </c>
+      <c r="O11" s="18">
+        <f>(FACT(O$5)/(FACT($C11)*FACT(O$5-$C11)))*($B$1^$C11)*(1-$B$1)^(O$5-$C11)</f>
+        <v>1.9379372806334503E-7</v>
+      </c>
+      <c r="P11" s="18">
+        <f>(FACT(P$5)/(FACT($C11)*FACT(P$5-$C11)))*($B$1^$C11)*(1-$B$1)^(P$5-$C11)</f>
+        <v>3.5090507188612831E-7</v>
+      </c>
+      <c r="Q11" s="18">
+        <f>(FACT(Q$5)/(FACT($C11)*FACT(Q$5-$C11)))*($B$1^$C11)*(1-$B$1)^(Q$5-$C11)</f>
+        <v>5.9873177890570645E-7</v>
+      </c>
+      <c r="R11" s="18">
+        <f>(FACT(R$5)/(FACT($C11)*FACT(R$5-$C11)))*($B$1^$C11)*(1-$B$1)^(R$5-$C11)</f>
+        <v>9.7293914072177301E-7</v>
+      </c>
+      <c r="S11" s="18">
+        <f>(FACT(S$5)/(FACT($C11)*FACT(S$5-$C11)))*($B$1^$C11)*(1-$B$1)^(S$5-$C11)</f>
+        <v>1.5177850595259658E-6</v>
+      </c>
+      <c r="T11" s="18">
+        <f>(FACT(T$5)/(FACT($C11)*FACT(T$5-$C11)))*($B$1^$C11)*(1-$B$1)^(T$5-$C11)</f>
+        <v>2.2870261237857161E-6</v>
+      </c>
+      <c r="U11" s="18">
+        <f>(FACT(U$5)/(FACT($C11)*FACT(U$5-$C11)))*($B$1^$C11)*(1-$B$1)^(U$5-$C11)</f>
+        <v>3.3447757060366104E-6</v>
+      </c>
+      <c r="V11" s="18">
+        <f>(FACT(V$5)/(FACT($C11)*FACT(V$5-$C11)))*($B$1^$C11)*(1-$B$1)^(V$5-$C11)</f>
+        <v>4.7663053811021695E-6</v>
+      </c>
+      <c r="W11" s="18">
+        <f>(FACT(W$5)/(FACT($C11)*FACT(W$5-$C11)))*($B$1^$C11)*(1-$B$1)^(W$5-$C11)</f>
+        <v>6.6387824951065927E-6</v>
+      </c>
+      <c r="X11">
+        <f>C11-1</f>
+        <v>5</v>
+      </c>
+      <c r="Z11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B12" s="19"/>
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="J12" s="18">
+        <f>(FACT(J$5)/(FACT($C12)*FACT(J$5-$C12)))*($B$1^$C12)*(1-$B$1)^(J$5-$C12)</f>
+        <v>6.1035156250000046E-12</v>
+      </c>
+      <c r="K12" s="18">
+        <f>(FACT(K$5)/(FACT($C12)*FACT(K$5-$C12)))*($B$1^$C12)*(1-$B$1)^(K$5-$C12)</f>
+        <v>4.7607421875000035E-11</v>
+      </c>
+      <c r="L12" s="18">
+        <f>(FACT(L$5)/(FACT($C12)*FACT(L$5-$C12)))*($B$1^$C12)*(1-$B$1)^(L$5-$C12)</f>
+        <v>2.0887756347656264E-10</v>
+      </c>
+      <c r="M12" s="18">
+        <f>(FACT(M$5)/(FACT($C12)*FACT(M$5-$C12)))*($B$1^$C12)*(1-$B$1)^(M$5-$C12)</f>
+        <v>6.7885208129882861E-10</v>
+      </c>
+      <c r="N12" s="18">
+        <f>(FACT(N$5)/(FACT($C12)*FACT(N$5-$C12)))*($B$1^$C12)*(1-$B$1)^(N$5-$C12)</f>
+        <v>1.820172142982484E-9</v>
+      </c>
+      <c r="O12" s="18">
+        <f>(FACT(O$5)/(FACT($C12)*FACT(O$5-$C12)))*($B$1^$C12)*(1-$B$1)^(O$5-$C12)</f>
+        <v>4.2592028145790124E-9</v>
+      </c>
+      <c r="P12" s="18">
+        <f>(FACT(P$5)/(FACT($C12)*FACT(P$5-$C12)))*($B$1^$C12)*(1-$B$1)^(P$5-$C12)</f>
+        <v>8.9975659457981644E-9</v>
+      </c>
+      <c r="Q12" s="18">
+        <f>(FACT(Q$5)/(FACT($C12)*FACT(Q$5-$C12)))*($B$1^$C12)*(1-$B$1)^(Q$5-$C12)</f>
+        <v>1.7545253594306417E-8</v>
+      </c>
+      <c r="R12" s="18">
+        <f>(FACT(R$5)/(FACT($C12)*FACT(R$5-$C12)))*($B$1^$C12)*(1-$B$1)^(R$5-$C12)</f>
+        <v>3.2074916727091422E-8</v>
+      </c>
+      <c r="S12" s="18">
+        <f>(FACT(S$5)/(FACT($C12)*FACT(S$5-$C12)))*($B$1^$C12)*(1-$B$1)^(S$5-$C12)</f>
+        <v>5.5596522326958468E-8</v>
+      </c>
+      <c r="T12" s="18">
+        <f>(FACT(T$5)/(FACT($C12)*FACT(T$5-$C12)))*($B$1^$C12)*(1-$B$1)^(T$5-$C12)</f>
+        <v>9.215123575693365E-8</v>
+      </c>
+      <c r="U12" s="18">
+        <f>(FACT(U$5)/(FACT($C12)*FACT(U$5-$C12)))*($B$1^$C12)*(1-$B$1)^(U$5-$C12)</f>
+        <v>1.4702310795765322E-7</v>
+      </c>
+      <c r="V12" s="18">
+        <f>(FACT(V$5)/(FACT($C12)*FACT(V$5-$C12)))*($B$1^$C12)*(1-$B$1)^(V$5-$C12)</f>
+        <v>2.2696692290962718E-7</v>
+      </c>
+      <c r="W12" s="18">
+        <f>(FACT(W$5)/(FACT($C12)*FACT(W$5-$C12)))*($B$1^$C12)*(1-$B$1)^(W$5-$C12)</f>
+        <v>3.4045038436444071E-7</v>
+      </c>
+      <c r="X12">
+        <f>C12-1</f>
+        <v>6</v>
+      </c>
+      <c r="Z12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B13" s="19"/>
+      <c r="C13">
+        <v>8</v>
+      </c>
+      <c r="K13" s="18">
+        <f>(FACT(K$5)/(FACT($C13)*FACT(K$5-$C13)))*($B$1^$C13)*(1-$B$1)^(K$5-$C13)</f>
+        <v>1.5258789062500013E-13</v>
+      </c>
+      <c r="L13" s="18">
+        <f>(FACT(L$5)/(FACT($C13)*FACT(L$5-$C13)))*($B$1^$C13)*(1-$B$1)^(L$5-$C13)</f>
+        <v>1.338958740234376E-12</v>
+      </c>
+      <c r="M13" s="18">
+        <f>(FACT(M$5)/(FACT($C13)*FACT(M$5-$C13)))*($B$1^$C13)*(1-$B$1)^(M$5-$C13)</f>
+        <v>6.5274238586425832E-12</v>
+      </c>
+      <c r="N13" s="18">
+        <f>(FACT(N$5)/(FACT($C13)*FACT(N$5-$C13)))*($B$1^$C13)*(1-$B$1)^(N$5-$C13)</f>
+        <v>2.3335540294647235E-11</v>
+      </c>
+      <c r="O13" s="18">
+        <f>(FACT(O$5)/(FACT($C13)*FACT(O$5-$C13)))*($B$1^$C13)*(1-$B$1)^(O$5-$C13)</f>
+        <v>6.8256455361843161E-11</v>
+      </c>
+      <c r="P13" s="18">
+        <f>(FACT(P$5)/(FACT($C13)*FACT(P$5-$C13)))*($B$1^$C13)*(1-$B$1)^(P$5-$C13)</f>
+        <v>1.7303011434227239E-10</v>
+      </c>
+      <c r="Q13" s="18">
+        <f>(FACT(Q$5)/(FACT($C13)*FACT(Q$5-$C13)))*($B$1^$C13)*(1-$B$1)^(Q$5-$C13)</f>
+        <v>3.9364351012866972E-10</v>
+      </c>
+      <c r="R13" s="18">
+        <f>(FACT(R$5)/(FACT($C13)*FACT(R$5-$C13)))*($B$1^$C13)*(1-$B$1)^(R$5-$C13)</f>
+        <v>8.2243376223311347E-10</v>
+      </c>
+      <c r="S13" s="18">
+        <f>(FACT(S$5)/(FACT($C13)*FACT(S$5-$C13)))*($B$1^$C13)*(1-$B$1)^(S$5-$C13)</f>
+        <v>1.6037458363545712E-9</v>
+      </c>
+      <c r="T13" s="18">
+        <f>(FACT(T$5)/(FACT($C13)*FACT(T$5-$C13)))*($B$1^$C13)*(1-$B$1)^(T$5-$C13)</f>
+        <v>2.9535652486196687E-9</v>
+      </c>
+      <c r="U13" s="18">
+        <f>(FACT(U$5)/(FACT($C13)*FACT(U$5-$C13)))*($B$1^$C13)*(1-$B$1)^(U$5-$C13)</f>
+        <v>5.1835070113275175E-9</v>
+      </c>
+      <c r="V13" s="18">
+        <f>(FACT(V$5)/(FACT($C13)*FACT(V$5-$C13)))*($B$1^$C13)*(1-$B$1)^(V$5-$C13)</f>
+        <v>8.7294970349856615E-9</v>
+      </c>
+      <c r="W13" s="18">
+        <f>(FACT(W$5)/(FACT($C13)*FACT(W$5-$C13)))*($B$1^$C13)*(1-$B$1)^(W$5-$C13)</f>
+        <v>1.4185432681851699E-8</v>
+      </c>
+      <c r="X13">
+        <f>C13-1</f>
+        <v>7</v>
+      </c>
+      <c r="Z13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B14" s="19"/>
+      <c r="C14">
+        <v>9</v>
+      </c>
+      <c r="L14" s="18">
+        <f>(FACT(L$5)/(FACT($C14)*FACT(L$5-$C14)))*($B$1^$C14)*(1-$B$1)^(L$5-$C14)</f>
+        <v>3.8146972656250034E-15</v>
+      </c>
+      <c r="M14" s="18">
+        <f>(FACT(M$5)/(FACT($C14)*FACT(M$5-$C14)))*($B$1^$C14)*(1-$B$1)^(M$5-$C14)</f>
+        <v>3.719329833984378E-14</v>
+      </c>
+      <c r="N14" s="18">
+        <f>(FACT(N$5)/(FACT($C14)*FACT(N$5-$C14)))*($B$1^$C14)*(1-$B$1)^(N$5-$C14)</f>
+        <v>1.9944906234741228E-13</v>
+      </c>
+      <c r="O14" s="18">
+        <f>(FACT(O$5)/(FACT($C14)*FACT(O$5-$C14)))*($B$1^$C14)*(1-$B$1)^(O$5-$C14)</f>
+        <v>7.778513431549079E-13</v>
+      </c>
+      <c r="P14" s="18">
+        <f>(FACT(P$5)/(FACT($C14)*FACT(P$5-$C14)))*($B$1^$C14)*(1-$B$1)^(P$5-$C14)</f>
+        <v>2.4648164436221143E-12</v>
+      </c>
+      <c r="Q14" s="18">
+        <f>(FACT(Q$5)/(FACT($C14)*FACT(Q$5-$C14)))*($B$1^$C14)*(1-$B$1)^(Q$5-$C14)</f>
+        <v>6.7289488910883718E-12</v>
+      </c>
+      <c r="R14" s="18">
+        <f>(FACT(R$5)/(FACT($C14)*FACT(R$5-$C14)))*($B$1^$C14)*(1-$B$1)^(R$5-$C14)</f>
+        <v>1.6401812922027906E-11</v>
+      </c>
+      <c r="S14" s="18">
+        <f>(FACT(S$5)/(FACT($C14)*FACT(S$5-$C14)))*($B$1^$C14)*(1-$B$1)^(S$5-$C14)</f>
+        <v>3.6552611654805046E-11</v>
+      </c>
+      <c r="T14" s="18">
+        <f>(FACT(T$5)/(FACT($C14)*FACT(T$5-$C14)))*($B$1^$C14)*(1-$B$1)^(T$5-$C14)</f>
+        <v>7.5732442272299205E-11</v>
+      </c>
+      <c r="U14" s="18">
+        <f>(FACT(U$5)/(FACT($C14)*FACT(U$5-$C14)))*($B$1^$C14)*(1-$B$1)^(U$5-$C14)</f>
+        <v>1.4767826243098345E-10</v>
+      </c>
+      <c r="V14" s="18">
+        <f>(FACT(V$5)/(FACT($C14)*FACT(V$5-$C14)))*($B$1^$C14)*(1-$B$1)^(V$5-$C14)</f>
+        <v>2.7357398115339678E-10</v>
+      </c>
+      <c r="W14" s="18">
+        <f>(FACT(W$5)/(FACT($C14)*FACT(W$5-$C14)))*($B$1^$C14)*(1-$B$1)^(W$5-$C14)</f>
+        <v>4.8497205749920337E-10</v>
+      </c>
+      <c r="X14">
+        <f>C14-1</f>
+        <v>8</v>
+      </c>
+      <c r="Z14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B15" s="19"/>
+      <c r="C15">
+        <v>10</v>
+      </c>
+      <c r="M15" s="18">
+        <f>(FACT(M$5)/(FACT($C15)*FACT(M$5-$C15)))*($B$1^$C15)*(1-$B$1)^(M$5-$C15)</f>
+        <v>9.5367431640625102E-17</v>
+      </c>
+      <c r="N15" s="18">
+        <f>(FACT(N$5)/(FACT($C15)*FACT(N$5-$C15)))*($B$1^$C15)*(1-$B$1)^(N$5-$C15)</f>
+        <v>1.0228157043457043E-15</v>
+      </c>
+      <c r="O15" s="18">
+        <f>(FACT(O$5)/(FACT($C15)*FACT(O$5-$C15)))*($B$1^$C15)*(1-$B$1)^(O$5-$C15)</f>
+        <v>5.9834718704223694E-15</v>
+      </c>
+      <c r="P15" s="18">
+        <f>(FACT(P$5)/(FACT($C15)*FACT(P$5-$C15)))*($B$1^$C15)*(1-$B$1)^(P$5-$C15)</f>
+        <v>2.5280168652534509E-14</v>
+      </c>
+      <c r="Q15" s="18">
+        <f>(FACT(Q$5)/(FACT($C15)*FACT(Q$5-$C15)))*($B$1^$C15)*(1-$B$1)^(Q$5-$C15)</f>
+        <v>8.6268575526774017E-14</v>
+      </c>
+      <c r="R15" s="18">
+        <f>(FACT(R$5)/(FACT($C15)*FACT(R$5-$C15)))*($B$1^$C15)*(1-$B$1)^(R$5-$C15)</f>
+        <v>2.5233558341581399E-13</v>
+      </c>
+      <c r="S15" s="18">
+        <f>(FACT(S$5)/(FACT($C15)*FACT(S$5-$C15)))*($B$1^$C15)*(1-$B$1)^(S$5-$C15)</f>
+        <v>6.5607251688111636E-13</v>
+      </c>
+      <c r="T15" s="18">
+        <f>(FACT(T$5)/(FACT($C15)*FACT(T$5-$C15)))*($B$1^$C15)*(1-$B$1)^(T$5-$C15)</f>
+        <v>1.5534859953292146E-12</v>
+      </c>
+      <c r="U15" s="18">
+        <f>(FACT(U$5)/(FACT($C15)*FACT(U$5-$C15)))*($B$1^$C15)*(1-$B$1)^(U$5-$C15)</f>
+        <v>3.4079599022534644E-12</v>
+      </c>
+      <c r="V15" s="18">
+        <f>(FACT(V$5)/(FACT($C15)*FACT(V$5-$C15)))*($B$1^$C15)*(1-$B$1)^(V$5-$C15)</f>
+        <v>7.014717465471715E-12</v>
+      </c>
+      <c r="W15" s="18">
+        <f>(FACT(W$5)/(FACT($C15)*FACT(W$5-$C15)))*($B$1^$C15)*(1-$B$1)^(W$5-$C15)</f>
+        <v>1.3678699057669843E-11</v>
+      </c>
+      <c r="X15">
+        <f>C15-1</f>
+        <v>9</v>
+      </c>
+      <c r="Z15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.35">
+      <c r="B16" s="19"/>
+      <c r="C16">
+        <v>11</v>
+      </c>
+      <c r="N16" s="18">
+        <f>(FACT(N$5)/(FACT($C16)*FACT(N$5-$C16)))*($B$1^$C16)*(1-$B$1)^(N$5-$C16)</f>
+        <v>2.3841857910156276E-18</v>
+      </c>
+      <c r="O16" s="18">
+        <f>(FACT(O$5)/(FACT($C16)*FACT(O$5-$C16)))*($B$1^$C16)*(1-$B$1)^(O$5-$C16)</f>
+        <v>2.7894973754882839E-17</v>
+      </c>
+      <c r="P16" s="18">
+        <f>(FACT(P$5)/(FACT($C16)*FACT(P$5-$C16)))*($B$1^$C16)*(1-$B$1)^(P$5-$C16)</f>
+        <v>1.7678439617157E-16</v>
+      </c>
+      <c r="Q16" s="18">
+        <f>(FACT(Q$5)/(FACT($C16)*FACT(Q$5-$C16)))*($B$1^$C16)*(1-$B$1)^(Q$5-$C16)</f>
+        <v>8.0436900258064355E-16</v>
+      </c>
+      <c r="R16" s="18">
+        <f>(FACT(R$5)/(FACT($C16)*FACT(R$5-$C16)))*($B$1^$C16)*(1-$B$1)^(R$5-$C16)</f>
+        <v>2.9409741656854777E-15</v>
+      </c>
+      <c r="S16" s="18">
+        <f>(FACT(S$5)/(FACT($C16)*FACT(S$5-$C16)))*($B$1^$C16)*(1-$B$1)^(S$5-$C16)</f>
+        <v>9.1758393969386893E-15</v>
+      </c>
+      <c r="T16" s="18">
+        <f>(FACT(T$5)/(FACT($C16)*FACT(T$5-$C16)))*($B$1^$C16)*(1-$B$1)^(T$5-$C16)</f>
+        <v>2.5348256334043127E-14</v>
+      </c>
+      <c r="U16" s="18">
+        <f>(FACT(U$5)/(FACT($C16)*FACT(U$5-$C16)))*($B$1^$C16)*(1-$B$1)^(U$5-$C16)</f>
+        <v>6.3551699808922416E-14</v>
+      </c>
+      <c r="V16" s="18">
+        <f>(FACT(V$5)/(FACT($C16)*FACT(V$5-$C16)))*($B$1^$C16)*(1-$B$1)^(V$5-$C16)</f>
+        <v>1.4716190487003597E-13</v>
+      </c>
+      <c r="W16" s="18">
+        <f>(FACT(W$5)/(FACT($C16)*FACT(W$5-$C16)))*($B$1^$C16)*(1-$B$1)^(W$5-$C16)</f>
+        <v>3.1885079388507798E-13</v>
+      </c>
+      <c r="X16">
+        <f>C16-1</f>
+        <v>10</v>
+      </c>
+      <c r="Z16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B17" s="19"/>
+      <c r="C17">
+        <v>12</v>
+      </c>
+      <c r="O17" s="18">
+        <f>(FACT(O$5)/(FACT($C17)*FACT(O$5-$C17)))*($B$1^$C17)*(1-$B$1)^(O$5-$C17)</f>
+        <v>5.9604644775390708E-20</v>
+      </c>
+      <c r="P17" s="18">
+        <f>(FACT(P$5)/(FACT($C17)*FACT(P$5-$C17)))*($B$1^$C17)*(1-$B$1)^(P$5-$C17)</f>
+        <v>7.5548887252807718E-19</v>
+      </c>
+      <c r="Q17" s="18">
+        <f>(FACT(Q$5)/(FACT($C17)*FACT(Q$5-$C17)))*($B$1^$C17)*(1-$B$1)^(Q$5-$C17)</f>
+        <v>5.1562115550041264E-18</v>
+      </c>
+      <c r="R17" s="18">
+        <f>(FACT(R$5)/(FACT($C17)*FACT(R$5-$C17)))*($B$1^$C17)*(1-$B$1)^(R$5-$C17)</f>
+        <v>2.5136531330645117E-17</v>
+      </c>
+      <c r="S17" s="18">
+        <f>(FACT(S$5)/(FACT($C17)*FACT(S$5-$C17)))*($B$1^$C17)*(1-$B$1)^(S$5-$C17)</f>
+        <v>9.8032472189515957E-17</v>
+      </c>
+      <c r="T17" s="18">
+        <f>(FACT(T$5)/(FACT($C17)*FACT(T$5-$C17)))*($B$1^$C17)*(1-$B$1)^(T$5-$C17)</f>
+        <v>3.2497764530824541E-16</v>
+      </c>
+      <c r="U17" s="18">
+        <f>(FACT(U$5)/(FACT($C17)*FACT(U$5-$C17)))*($B$1^$C17)*(1-$B$1)^(U$5-$C17)</f>
+        <v>9.5055961252661763E-16</v>
+      </c>
+      <c r="V17" s="18">
+        <f>(FACT(V$5)/(FACT($C17)*FACT(V$5-$C17)))*($B$1^$C17)*(1-$B$1)^(V$5-$C17)</f>
+        <v>2.5155881174365131E-15</v>
+      </c>
+      <c r="W17" s="18">
+        <f>(FACT(W$5)/(FACT($C17)*FACT(W$5-$C17)))*($B$1^$C17)*(1-$B$1)^(W$5-$C17)</f>
+        <v>6.1317460362515004E-15</v>
+      </c>
+      <c r="X17">
+        <f>C17-1</f>
+        <v>11</v>
+      </c>
+      <c r="Z17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B18" s="19"/>
+      <c r="C18">
+        <v>13</v>
+      </c>
+      <c r="P18" s="18">
+        <f>(FACT(P$5)/(FACT($C18)*FACT(P$5-$C18)))*($B$1^$C18)*(1-$B$1)^(P$5-$C18)</f>
+        <v>1.4901161193847677E-21</v>
+      </c>
+      <c r="Q18" s="18">
+        <f>(FACT(Q$5)/(FACT($C18)*FACT(Q$5-$C18)))*($B$1^$C18)*(1-$B$1)^(Q$5-$C18)</f>
+        <v>2.0340085029602077E-20</v>
+      </c>
+      <c r="R18" s="18">
+        <f>(FACT(R$5)/(FACT($C18)*FACT(R$5-$C18)))*($B$1^$C18)*(1-$B$1)^(R$5-$C18)</f>
+        <v>1.4873687177896521E-19</v>
+      </c>
+      <c r="S18" s="18">
+        <f>(FACT(S$5)/(FACT($C18)*FACT(S$5-$C18)))*($B$1^$C18)*(1-$B$1)^(S$5-$C18)</f>
+        <v>7.7343173325061903E-19</v>
+      </c>
+      <c r="T18" s="18">
+        <f>(FACT(T$5)/(FACT($C18)*FACT(T$5-$C18)))*($B$1^$C18)*(1-$B$1)^(T$5-$C18)</f>
+        <v>3.2049077446572522E-18</v>
+      </c>
+      <c r="U18" s="18">
+        <f>(FACT(U$5)/(FACT($C18)*FACT(U$5-$C18)))*($B$1^$C18)*(1-$B$1)^(U$5-$C18)</f>
+        <v>1.1249226183746956E-17</v>
+      </c>
+      <c r="V18" s="18">
+        <f>(FACT(V$5)/(FACT($C18)*FACT(V$5-$C18)))*($B$1^$C18)*(1-$B$1)^(V$5-$C18)</f>
+        <v>3.4731985842318723E-17</v>
+      </c>
+      <c r="W18" s="18">
+        <f>(FACT(W$5)/(FACT($C18)*FACT(W$5-$C18)))*($B$1^$C18)*(1-$B$1)^(W$5-$C18)</f>
+        <v>9.6753389132173576E-17</v>
+      </c>
+      <c r="X18">
+        <f>C18-1</f>
+        <v>12</v>
+      </c>
+      <c r="Z18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B19" s="19"/>
+      <c r="C19">
+        <v>14</v>
+      </c>
+      <c r="Q19" s="18">
+        <f>(FACT(Q$5)/(FACT($C19)*FACT(Q$5-$C19)))*($B$1^$C19)*(1-$B$1)^(Q$5-$C19)</f>
+        <v>3.7252902984619193E-23</v>
+      </c>
+      <c r="R19" s="18">
+        <f>(FACT(R$5)/(FACT($C19)*FACT(R$5-$C19)))*($B$1^$C19)*(1-$B$1)^(R$5-$C19)</f>
+        <v>5.4482370615005571E-22</v>
+      </c>
+      <c r="S19" s="18">
+        <f>(FACT(S$5)/(FACT($C19)*FACT(S$5-$C19)))*($B$1^$C19)*(1-$B$1)^(S$5-$C19)</f>
+        <v>4.2496249079704343E-21</v>
+      </c>
+      <c r="T19" s="18">
+        <f>(FACT(T$5)/(FACT($C19)*FACT(T$5-$C19)))*($B$1^$C19)*(1-$B$1)^(T$5-$C19)</f>
+        <v>2.3479177616536649E-20</v>
+      </c>
+      <c r="U19" s="18">
+        <f>(FACT(U$5)/(FACT($C19)*FACT(U$5-$C19)))*($B$1^$C19)*(1-$B$1)^(U$5-$C19)</f>
+        <v>1.0301489179255454E-19</v>
+      </c>
+      <c r="V19" s="18">
+        <f>(FACT(V$5)/(FACT($C19)*FACT(V$5-$C19)))*($B$1^$C19)*(1-$B$1)^(V$5-$C19)</f>
+        <v>3.8167017409141459E-19</v>
+      </c>
+      <c r="W19" s="18">
+        <f>(FACT(W$5)/(FACT($C19)*FACT(W$5-$C19)))*($B$1^$C19)*(1-$B$1)^(W$5-$C19)</f>
+        <v>1.2404280657970973E-18</v>
+      </c>
+      <c r="X19">
+        <f>C19-1</f>
+        <v>13</v>
+      </c>
+      <c r="Z19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B20" s="19"/>
+      <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="R20" s="18">
+        <f>(FACT(R$5)/(FACT($C20)*FACT(R$5-$C20)))*($B$1^$C20)*(1-$B$1)^(R$5-$C20)</f>
+        <v>9.3132257461548006E-25</v>
+      </c>
+      <c r="S20" s="18">
+        <f>(FACT(S$5)/(FACT($C20)*FACT(S$5-$C20)))*($B$1^$C20)*(1-$B$1)^(S$5-$C20)</f>
+        <v>1.4528632164001489E-23</v>
+      </c>
+      <c r="T20" s="18">
+        <f>(FACT(T$5)/(FACT($C20)*FACT(T$5-$C20)))*($B$1^$C20)*(1-$B$1)^(T$5-$C20)</f>
+        <v>1.2040603905916234E-22</v>
+      </c>
+      <c r="U20" s="18">
+        <f>(FACT(U$5)/(FACT($C20)*FACT(U$5-$C20)))*($B$1^$C20)*(1-$B$1)^(U$5-$C20)</f>
+        <v>7.0437532849609963E-22</v>
+      </c>
+      <c r="V20" s="18">
+        <f>(FACT(V$5)/(FACT($C20)*FACT(V$5-$C20)))*($B$1^$C20)*(1-$B$1)^(V$5-$C20)</f>
+        <v>3.2621382400975612E-21</v>
+      </c>
+      <c r="W20" s="18">
+        <f>(FACT(W$5)/(FACT($C20)*FACT(W$5-$C20)))*($B$1^$C20)*(1-$B$1)^(W$5-$C20)</f>
+        <v>1.2722339136380488E-20</v>
+      </c>
+      <c r="X20">
+        <f>C20-1</f>
+        <v>14</v>
+      </c>
+      <c r="Z20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B21" s="19"/>
+      <c r="C21">
+        <v>16</v>
+      </c>
+      <c r="S21" s="18">
+        <f>(FACT(S$5)/(FACT($C21)*FACT(S$5-$C21)))*($B$1^$C21)*(1-$B$1)^(S$5-$C21)</f>
+        <v>2.3283064365387003E-26</v>
+      </c>
+      <c r="T21" s="18">
+        <f>(FACT(T$5)/(FACT($C21)*FACT(T$5-$C21)))*($B$1^$C21)*(1-$B$1)^(T$5-$C21)</f>
+        <v>3.8591679185628956E-25</v>
+      </c>
+      <c r="U21" s="18">
+        <f>(FACT(U$5)/(FACT($C21)*FACT(U$5-$C21)))*($B$1^$C21)*(1-$B$1)^(U$5-$C21)</f>
+        <v>3.3864198485389409E-24</v>
+      </c>
+      <c r="V21" s="18">
+        <f>(FACT(V$5)/(FACT($C21)*FACT(V$5-$C21)))*($B$1^$C21)*(1-$B$1)^(V$5-$C21)</f>
+        <v>2.0911142564727957E-23</v>
+      </c>
+      <c r="W21" s="18">
+        <f>(FACT(W$5)/(FACT($C21)*FACT(W$5-$C21)))*($B$1^$C21)*(1-$B$1)^(W$5-$C21)</f>
+        <v>1.0194182000304879E-22</v>
+      </c>
+      <c r="X21">
+        <f>C21-1</f>
+        <v>15</v>
+      </c>
+      <c r="Z21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B22" s="19"/>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="T22" s="18">
+        <f>(FACT(T$5)/(FACT($C22)*FACT(T$5-$C22)))*($B$1^$C22)*(1-$B$1)^(T$5-$C22)</f>
+        <v>5.820766091346751E-28</v>
+      </c>
+      <c r="U22" s="18">
+        <f>(FACT(U$5)/(FACT($C22)*FACT(U$5-$C22)))*($B$1^$C22)*(1-$B$1)^(U$5-$C22)</f>
+        <v>1.0215444490313547E-26</v>
+      </c>
+      <c r="V22" s="18">
+        <f>(FACT(V$5)/(FACT($C22)*FACT(V$5-$C22)))*($B$1^$C22)*(1-$B$1)^(V$5-$C22)</f>
+        <v>9.4620554591529228E-26</v>
+      </c>
+      <c r="W22" s="18">
+        <f>(FACT(W$5)/(FACT($C22)*FACT(W$5-$C22)))*($B$1^$C22)*(1-$B$1)^(W$5-$C22)</f>
+        <v>6.1503360484493998E-25</v>
+      </c>
+      <c r="X22">
+        <f>C22-1</f>
+        <v>16</v>
+      </c>
+      <c r="Z22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B23" s="19"/>
+      <c r="C23">
+        <v>18</v>
+      </c>
+      <c r="U23" s="18">
+        <f>(FACT(U$5)/(FACT($C23)*FACT(U$5-$C23)))*($B$1^$C23)*(1-$B$1)^(U$5-$C23)</f>
+        <v>1.4551915228366878E-29</v>
+      </c>
+      <c r="V23" s="18">
+        <f>(FACT(V$5)/(FACT($C23)*FACT(V$5-$C23)))*($B$1^$C23)*(1-$B$1)^(V$5-$C23)</f>
+        <v>2.6957422960549642E-28</v>
+      </c>
+      <c r="W23" s="18">
+        <f>(FACT(W$5)/(FACT($C23)*FACT(W$5-$C23)))*($B$1^$C23)*(1-$B$1)^(W$5-$C23)</f>
+        <v>2.6283487386535899E-27</v>
+      </c>
+      <c r="X23">
+        <f>C23-1</f>
+        <v>17</v>
+      </c>
+      <c r="Z23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B24" s="19"/>
+      <c r="C24">
+        <v>19</v>
+      </c>
+      <c r="V24" s="18">
+        <f>(FACT(V$5)/(FACT($C24)*FACT(V$5-$C24)))*($B$1^$C24)*(1-$B$1)^(V$5-$C24)</f>
+        <v>3.6379788070917199E-31</v>
+      </c>
+      <c r="W24" s="18">
+        <f>(FACT(W$5)/(FACT($C24)*FACT(W$5-$C24)))*($B$1^$C24)*(1-$B$1)^(W$5-$C24)</f>
+        <v>7.0940586738288544E-30</v>
+      </c>
+      <c r="X24">
+        <f>C24-1</f>
+        <v>18</v>
+      </c>
+      <c r="Z24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="B25" s="19"/>
+      <c r="C25">
+        <v>20</v>
+      </c>
+      <c r="W25" s="18">
+        <f>(FACT(W$5)/(FACT($C25)*FACT(W$5-$C25)))*($B$1^$C25)*(1-$B$1)^(W$5-$C25)</f>
+        <v>9.0949470177293024E-33</v>
+      </c>
+      <c r="X25">
+        <f>C25-1</f>
+        <v>19</v>
+      </c>
+      <c r="Z25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f>SUM(E7)</f>
+        <v>6.2500000000000012E-4</v>
+      </c>
+      <c r="F26">
+        <f>F7+F8</f>
+        <v>1.8437500000000003E-3</v>
+      </c>
+      <c r="G26">
+        <f>SUM(G7:G9)</f>
+        <v>3.6261718750000005E-3</v>
+      </c>
+      <c r="H26">
+        <f>SUM(H7:H10)</f>
+        <v>5.9433203125E-3</v>
+      </c>
+      <c r="I26">
+        <f>SUM(I7:I11)</f>
+        <v>8.7673449707031254E-3</v>
+      </c>
+      <c r="J26">
+        <f>SUM(J8:J12)</f>
+        <v>5.0707284545898441E-4</v>
+      </c>
+      <c r="K26">
+        <f>SUM(K8:K13)</f>
+        <v>7.9618236984252953E-4</v>
+      </c>
+      <c r="L26">
+        <f>SUM(L8:L14)</f>
+        <v>1.1720247515411375E-3</v>
+      </c>
+      <c r="M26">
+        <f>SUM(M8:M15)</f>
+        <v>1.6431700228847503E-3</v>
+      </c>
+      <c r="N26">
+        <f>SUM(N8:N16)</f>
+        <v>2.2173783223347772E-3</v>
+      </c>
+      <c r="O26">
+        <f>SUM(O8:O17)</f>
+        <v>2.9016432125127281E-3</v>
+      </c>
+      <c r="P26">
+        <f>SUM(P8:P18)</f>
+        <v>3.7022331340209303E-3</v>
+      </c>
+      <c r="Q26">
+        <f>SUM(Q8:Q19)</f>
+        <v>4.6247310663042433E-3</v>
+      </c>
+      <c r="R26">
+        <f>SUM(R8:R20)</f>
+        <v>5.6740724642765136E-3</v>
+      </c>
+      <c r="S26">
+        <f>SUM(S8:S21)</f>
+        <v>6.8545815369953156E-3</v>
+      </c>
+      <c r="T26">
+        <f>SUM(T8:T22)</f>
+        <v>8.1700059323105527E-3</v>
+      </c>
+      <c r="U26">
+        <f>SUM(U8:U23)</f>
+        <v>9.6235498891338866E-3</v>
+      </c>
+      <c r="V26">
+        <f>SUM(V9:V24)</f>
+        <v>1.1203177417173651E-3</v>
+      </c>
+      <c r="W26">
+        <f>SUM(W9:W25)</f>
+        <v>1.3727574460937939E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="2:26" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>1</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>2</v>
+      </c>
+      <c r="N27">
+        <v>2</v>
+      </c>
+      <c r="O27">
+        <v>2</v>
+      </c>
+      <c r="P27">
+        <v>2</v>
+      </c>
+      <c r="Q27">
+        <v>2</v>
+      </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
+      <c r="S27">
+        <v>2</v>
+      </c>
+      <c r="T27">
+        <v>2</v>
+      </c>
+      <c r="U27">
+        <v>2</v>
+      </c>
+      <c r="V27">
+        <v>3</v>
+      </c>
+      <c r="W27">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="D4:W4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="E26">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F26:W26">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>$B$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>